--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\IdeaProjects\practiceCucumber_automationexercise\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferhat\IdeaProjects\AutomationExercisePractice\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAABD3B0-CE12-459E-950C-B3C6B2FE0A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81531B3F-743F-4DFC-A8F8-8D0B16C6986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3756" yWindow="336" windowWidth="17280" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="90" windowWidth="10695" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>ferhatdeneme@gmail.com</t>
+  </si>
+  <si>
+    <t>wrongmail@gmail.com</t>
+  </si>
+  <si>
+    <t>wrongmailandpassword@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -95,9 +104,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,19 +386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.2" customHeight="1">
+    <row r="1" spans="1:2" ht="22.15" customHeight="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -404,11 +414,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1236546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F985F1EE-C03E-4FE9-A3FE-BCF899784DD4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{777FDE4C-3EDA-4E1A-93A7-5E61DBEB54BD}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{8221ED51-3E51-4B42-8D2A-6BBCBA831B96}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{314785A3-11F0-4EA4-AE51-61E7F19DA957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferhat\IdeaProjects\AutomationExercisePractice\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81531B3F-743F-4DFC-A8F8-8D0B16C6986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C530162A-44A4-458C-B5B2-37BC23183393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8685" yWindow="90" windowWidth="10695" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,34 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>practicebatch44@gmail.com</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>ferhatdeneme@gmail.com</t>
   </si>
   <si>
-    <t>wrongmail@gmail.com</t>
+    <t>ferhat@gmail.com</t>
   </si>
   <si>
-    <t>wrongmailandpassword@gmail.com</t>
+    <t>deneme@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,11 +61,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,16 +84,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,75 +371,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.15" customHeight="1">
+    <row r="1" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>98745612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1236546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
+        <v>456896</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F985F1EE-C03E-4FE9-A3FE-BCF899784DD4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{777FDE4C-3EDA-4E1A-93A7-5E61DBEB54BD}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{8221ED51-3E51-4B42-8D2A-6BBCBA831B96}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{314785A3-11F0-4EA4-AE51-61E7F19DA957}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8E199073-0C00-4CCF-BDB0-B71727F01D19}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{749F0C3A-6A3D-4647-8290-ECD13150D905}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{7BD5B789-AA45-40C5-B315-7D0D2B6756B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>